--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1835111.349048084</v>
+        <v>1832776.237846104</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>134.7680386719707</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.2200463431398</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>43.21158606285034</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.4528833267056</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6330871192029</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>176.1146791460087</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.707151258119</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.9096712398372</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>192.1675620474802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368376975</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>180.0572044082421</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107.7122866515512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507407</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>47.49734780285726</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
-        <v>178.8757728051364</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340502</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>86.80636739625321</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.65115569188777</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182169</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,13 +4192,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>160.0173565357453</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1420.453969953914</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1420.453969953914</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1062.188271347163</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>676.4000187489189</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>265.4141139593114</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>253.7497677240043</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.593301929725</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1420.453969953914</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>876.7371814104225</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="C4" t="n">
-        <v>707.8009984825156</v>
+        <v>349.0604424885609</v>
       </c>
       <c r="D4" t="n">
-        <v>557.6843590701799</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="E4" t="n">
-        <v>409.7712654877868</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="F4" t="n">
-        <v>262.8813179898764</v>
+        <v>198.9438030762251</v>
       </c>
       <c r="G4" t="n">
-        <v>94.89485329815497</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>94.89485329815497</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384192</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W4" t="n">
-        <v>1279.178225384192</v>
+        <v>758.6984582168179</v>
       </c>
       <c r="X4" t="n">
-        <v>1279.178225384192</v>
+        <v>530.7089073188006</v>
       </c>
       <c r="Y4" t="n">
-        <v>1058.385646240662</v>
+        <v>530.7089073188006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.92672505065</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.964208110239</v>
+        <v>1176.100419978354</v>
       </c>
       <c r="D5" t="n">
-        <v>897.6985095034881</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>511.9102569052439</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>100.9243521156363</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>89.26000588032927</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>89.26000588032927</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,16 +4568,16 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.92672505065</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.9577966591559</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1401.388391530943</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1173.398840632926</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.6062614893956</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.127034633561</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>615.6449305525938</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>465.528291140258</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578649</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578649</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578649</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.903366400063</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1640.408734861921</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603197</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947395</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704547</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.19518280653</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>493.2161050975141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.0193492433381</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>558.0193492433381</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2424.083128335929</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2241.228293990834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2021.626829013775</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1732.551602357973</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.867114152086</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1188.449944115125</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>960.4603932171079</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.6678140735778</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>224.335519760177</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.5911984019041</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426093036</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>45.65245098079504</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788712</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>204.6402955209707</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.7088805469584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788707</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.44045370237463</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.72409101823391</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864789021</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>92.12028678808275</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875611.8662119168</v>
+        <v>875611.8662119167</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119168</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>875611.8662119169</v>
+        <v>875611.8662119167</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26317,43 @@
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744295</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744337</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789008.4983343558</v>
+        <v>-789008.4983343561</v>
       </c>
       <c r="C6" t="n">
-        <v>325743.2852415636</v>
+        <v>325743.2852415638</v>
       </c>
       <c r="D6" t="n">
-        <v>165727.8224935649</v>
+        <v>165727.8224935647</v>
       </c>
       <c r="E6" t="n">
-        <v>109561.7067677476</v>
+        <v>109526.9688423119</v>
       </c>
       <c r="F6" t="n">
-        <v>434974.1685751026</v>
+        <v>434939.4306496669</v>
       </c>
       <c r="G6" t="n">
-        <v>434974.1685751026</v>
+        <v>434939.430649667</v>
       </c>
       <c r="H6" t="n">
-        <v>434974.1685751028</v>
+        <v>434939.4306496667</v>
       </c>
       <c r="I6" t="n">
-        <v>434974.1685751025</v>
+        <v>434939.4306496668</v>
       </c>
       <c r="J6" t="n">
-        <v>267368.9907651197</v>
+        <v>267334.2528396843</v>
       </c>
       <c r="K6" t="n">
-        <v>434974.1685751025</v>
+        <v>434939.430649667</v>
       </c>
       <c r="L6" t="n">
-        <v>386680.1985669118</v>
+        <v>386645.460641476</v>
       </c>
       <c r="M6" t="n">
-        <v>349919.140639591</v>
+        <v>349884.402714155</v>
       </c>
       <c r="N6" t="n">
-        <v>434974.1685751028</v>
+        <v>434939.4306496666</v>
       </c>
       <c r="O6" t="n">
-        <v>434974.1685751029</v>
+        <v>434939.4306496667</v>
       </c>
       <c r="P6" t="n">
-        <v>434974.1685751028</v>
+        <v>434939.4306496668</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>166.2505138904347</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.0865537016644</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>61.58500914105024</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26.23015829397735</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28.0768255532676</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1124749751919</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.81584707847205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.32826741621642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>94.35543628911083</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-3.287668775498232e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>474.0150488837094</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>303.0719207327586</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096304</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
